--- a/a1.xlsx
+++ b/a1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CurtisLui/Documents/Documents/SFU /4th Year/SUMMER 2020/CMPT 310/aima-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F12B0D-F6F0-3B4F-8F91-96D6304FE787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCB8934-AAA3-984A-8196-ED4EC7C67F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{423D17DF-81E2-8D47-A949-B41332F7DC77}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{423D17DF-81E2-8D47-A949-B41332F7DC77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>Initial State</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>(7, 4, 1, 0, 3, 2, 8, 5, 6)</t>
   </si>
@@ -85,13 +82,58 @@
   </si>
   <si>
     <t>(3, 1, 8, 0, 2, 6, 7, 5, 4)</t>
+  </si>
+  <si>
+    <t>misplaced heuristic is a large underestimation</t>
+  </si>
+  <si>
+    <t>set of actions are different</t>
+  </si>
+  <si>
+    <t>duck puzzle:</t>
+  </si>
+  <si>
+    <t>result will be different</t>
+  </si>
+  <si>
+    <t>Question 2: Comparing Algorithms</t>
+  </si>
+  <si>
+    <t>Initial EightPuzzle State</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Question 3: The House-Puzzle</t>
+  </si>
+  <si>
+    <t>Initial Puzzle State</t>
+  </si>
+  <si>
+    <t>Which algorithm is the best?</t>
+  </si>
+  <si>
+    <t>Comparing Duck-Puzzle to 8-Puzzle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,23 +150,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -132,17 +195,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -459,431 +614,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72999274-A13A-4147-AA55-324BBD695605}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17">
+        <v>3.7631988525390599E-3</v>
+      </c>
+      <c r="C4" s="16">
+        <v>14</v>
+      </c>
+      <c r="D4" s="18">
+        <v>83</v>
+      </c>
+      <c r="E4" s="16">
+        <v>6.1702728271484299E-4</v>
+      </c>
+      <c r="F4" s="16">
+        <v>14</v>
+      </c>
+      <c r="G4" s="16">
+        <v>15</v>
+      </c>
+      <c r="H4" s="17">
+        <v>4.4512748718261702E-4</v>
+      </c>
+      <c r="I4" s="16">
+        <v>14</v>
+      </c>
+      <c r="J4" s="18">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.45156216621398898</v>
+      </c>
+      <c r="C5" s="9">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1286</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4.4016838073730399E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>19</v>
+      </c>
+      <c r="G5" s="9">
+        <v>342</v>
+      </c>
+      <c r="H5" s="14">
+        <v>4.3816089630126898E-2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>19</v>
+      </c>
+      <c r="J5" s="15">
+        <v>342</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14">
+        <v>516.83531188964798</v>
+      </c>
+      <c r="C6" s="9">
+        <v>27</v>
+      </c>
+      <c r="D6" s="15">
+        <v>38363</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.3462421894073402</v>
+      </c>
+      <c r="F6" s="9">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2972</v>
+      </c>
+      <c r="H6" s="14">
+        <v>2.3777329921722399</v>
+      </c>
+      <c r="I6" s="9">
+        <v>27</v>
+      </c>
+      <c r="J6" s="15">
+        <v>2972</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14">
+        <v>5.5968999862670898E-2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15">
+        <v>396</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4.4620037078857396E-3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9">
+        <v>89</v>
+      </c>
+      <c r="H7" s="14">
+        <v>4.2881965637206997E-3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>17</v>
+      </c>
+      <c r="J7" s="15">
+        <v>89</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14">
+        <v>22.224617004394499</v>
+      </c>
+      <c r="C8" s="9">
+        <v>24</v>
+      </c>
+      <c r="D8" s="15">
+        <v>9326</v>
+      </c>
+      <c r="E8" s="9">
+        <v>6.2270164489745997E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9">
+        <v>420</v>
+      </c>
+      <c r="H8" s="14">
+        <v>5.9733867645263602E-2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>24</v>
+      </c>
+      <c r="J8" s="15">
+        <v>420</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="14">
+        <v>43.950897932052598</v>
+      </c>
+      <c r="C9" s="9">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15">
+        <v>12887</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.15557885169982899</v>
+      </c>
+      <c r="F9" s="9">
+        <v>25</v>
+      </c>
+      <c r="G9" s="9">
+        <v>695</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.15943694114685</v>
+      </c>
+      <c r="I9" s="9">
+        <v>25</v>
+      </c>
+      <c r="J9" s="15">
+        <v>695</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <v>458.778995037078</v>
+      </c>
+      <c r="C10" s="9">
+        <v>27</v>
+      </c>
+      <c r="D10" s="15">
+        <v>34688</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.12128210067749</v>
+      </c>
+      <c r="F10" s="9">
+        <v>27</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2013</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1.12520503997802</v>
+      </c>
+      <c r="I10" s="9">
+        <v>27</v>
+      </c>
+      <c r="J10" s="15">
+        <v>2013</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="14">
+        <v>21.3444180488586</v>
+      </c>
+      <c r="C11" s="9">
+        <v>24</v>
+      </c>
+      <c r="D11" s="15">
+        <v>9187</v>
+      </c>
+      <c r="E11" s="9">
+        <v>5.0786733627319301E-2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>24</v>
+      </c>
+      <c r="G11" s="9">
+        <v>366</v>
+      </c>
+      <c r="H11" s="14">
+        <v>4.8313140869140597E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>24</v>
+      </c>
+      <c r="J11" s="15">
+        <v>366</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14">
+        <v>9.0247869491577095</v>
+      </c>
+      <c r="C12" s="9">
+        <v>23</v>
+      </c>
+      <c r="D12" s="15">
+        <v>5826</v>
+      </c>
+      <c r="E12" s="9">
+        <v>7.4630260467529297E-2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>23</v>
+      </c>
+      <c r="G12" s="9">
+        <v>467</v>
+      </c>
+      <c r="H12" s="14">
+        <v>7.41009712219238E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>23</v>
+      </c>
+      <c r="J12" s="15">
+        <v>467</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14">
+        <v>4.5554559230804399</v>
+      </c>
+      <c r="C13" s="9">
+        <v>22</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4133</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3.2054901123046799E-2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>22</v>
+      </c>
+      <c r="G13" s="9">
+        <v>282</v>
+      </c>
+      <c r="H13" s="14">
+        <v>3.1358003616333001E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>22</v>
+      </c>
+      <c r="J13" s="15">
+        <v>282</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="14">
+        <v>4.4608860015869096</v>
+      </c>
+      <c r="C14" s="9">
+        <v>22</v>
+      </c>
+      <c r="D14" s="15">
+        <v>4093</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3.9394140243530197E-2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>22</v>
+      </c>
+      <c r="G14" s="9">
+        <v>312</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3.9665937423705999E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>22</v>
+      </c>
+      <c r="J14" s="15">
+        <v>312</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="I16" s="7"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="17">
+        <f>MIN(B4:B14)</f>
+        <v>3.7631988525390599E-3</v>
+      </c>
+      <c r="C18" s="16">
+        <f>MIN(C4:C14)</f>
+        <v>14</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" ref="C18:J18" si="0">MIN(D4:D14)</f>
+        <v>83</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="0"/>
+        <v>6.1702728271484299E-4</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="0"/>
+        <v>4.4512748718261702E-4</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="14">
+        <f>MAX(B4:B14)</f>
+        <v>516.83531188964798</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19:J19" si="1">MAX(C4:C14)</f>
+        <v>27</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="1"/>
+        <v>38363</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="1"/>
+        <v>2.3462421894073402</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>2972</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="1"/>
+        <v>2.3777329921722399</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="1"/>
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="14">
+        <f>AVERAGE(B4:B14)</f>
+        <v>98.335151195525995</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" ref="C20:J20" si="2">AVERAGE(C4:C14)</f>
+        <v>22.181818181818183</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="2"/>
+        <v>10933.454545454546</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="2"/>
+        <v>0.35739411007274202</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="2"/>
+        <v>22.181818181818183</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="2"/>
+        <v>724.81818181818187</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="2"/>
+        <v>0.36037239161404616</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="2"/>
+        <v>22.181818181818183</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="2"/>
+        <v>724.81818181818187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="14">
+        <f>MEDIAN(B4:B14)</f>
+        <v>9.0247869491577095</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" ref="C21:J21" si="3">MEDIAN(C4:C14)</f>
+        <v>23</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="3"/>
+        <v>5826</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="3"/>
+        <v>5.0786733627319301E-2</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="3"/>
+        <v>366</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="3"/>
+        <v>4.8313140869140597E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="3"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3.7631988525390599E-3</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>83</v>
-      </c>
-      <c r="E3">
-        <v>6.1702728271484299E-4</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>4.4512748718261702E-4</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.45156216621398898</v>
-      </c>
-      <c r="C4">
+      <c r="H25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>1286</v>
-      </c>
-      <c r="E4">
-        <v>4.4016838073730399E-2</v>
-      </c>
-      <c r="F4">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>342</v>
-      </c>
-      <c r="H4">
-        <v>4.3816089630126898E-2</v>
-      </c>
-      <c r="I4">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>516.83531188964798</v>
-      </c>
-      <c r="C5">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>38363</v>
-      </c>
-      <c r="E5">
-        <v>2.3462421894073402</v>
-      </c>
-      <c r="F5">
-        <v>27</v>
-      </c>
-      <c r="G5">
-        <v>2972</v>
-      </c>
-      <c r="H5">
-        <v>2.3777329921722399</v>
-      </c>
-      <c r="I5">
-        <v>27</v>
-      </c>
-      <c r="J5">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>5.5968999862670898E-2</v>
-      </c>
-      <c r="C6">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>396</v>
-      </c>
-      <c r="E6">
-        <v>4.4620037078857396E-3</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>89</v>
-      </c>
-      <c r="H6">
-        <v>4.2881965637206997E-3</v>
-      </c>
-      <c r="I6">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>22.224617004394499</v>
-      </c>
-      <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>9326</v>
-      </c>
-      <c r="E7">
-        <v>6.2270164489745997E-2</v>
-      </c>
-      <c r="F7">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>420</v>
-      </c>
-      <c r="H7">
-        <v>5.9733867645263602E-2</v>
-      </c>
-      <c r="I7">
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>43.950897932052598</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>12887</v>
-      </c>
-      <c r="E8">
-        <v>0.15557885169982899</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>695</v>
-      </c>
-      <c r="H8">
-        <v>0.15943694114685</v>
-      </c>
-      <c r="I8">
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>458.778995037078</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>34688</v>
-      </c>
-      <c r="E9">
-        <v>1.12128210067749</v>
-      </c>
-      <c r="F9">
-        <v>27</v>
-      </c>
-      <c r="G9">
-        <v>2013</v>
-      </c>
-      <c r="H9">
-        <v>1.12520503997802</v>
-      </c>
-      <c r="I9">
-        <v>27</v>
-      </c>
-      <c r="J9">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>21.3444180488586</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>9187</v>
-      </c>
-      <c r="E10">
-        <v>5.0786733627319301E-2</v>
-      </c>
-      <c r="F10">
-        <v>24</v>
-      </c>
-      <c r="G10">
-        <v>366</v>
-      </c>
-      <c r="H10">
-        <v>4.8313140869140597E-2</v>
-      </c>
-      <c r="I10">
-        <v>24</v>
-      </c>
-      <c r="J10">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>9.0247869491577095</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>5826</v>
-      </c>
-      <c r="E11">
-        <v>7.4630260467529297E-2</v>
-      </c>
-      <c r="F11">
-        <v>23</v>
-      </c>
-      <c r="G11">
-        <v>467</v>
-      </c>
-      <c r="H11">
-        <v>7.41009712219238E-2</v>
-      </c>
-      <c r="I11">
-        <v>23</v>
-      </c>
-      <c r="J11">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>4.5554559230804399</v>
-      </c>
-      <c r="C12">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>4133</v>
-      </c>
-      <c r="E12">
-        <v>3.2054901123046799E-2</v>
-      </c>
-      <c r="F12">
-        <v>22</v>
-      </c>
-      <c r="G12">
-        <v>282</v>
-      </c>
-      <c r="H12">
-        <v>3.1358003616333001E-2</v>
-      </c>
-      <c r="I12">
-        <v>22</v>
-      </c>
-      <c r="J12">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>4.4608860015869096</v>
-      </c>
-      <c r="C13">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>4093</v>
-      </c>
-      <c r="E13">
-        <v>3.9394140243530197E-2</v>
-      </c>
-      <c r="F13">
-        <v>22</v>
-      </c>
-      <c r="G13">
-        <v>312</v>
-      </c>
-      <c r="H13">
-        <v>3.9665937423705999E-2</v>
-      </c>
-      <c r="I13">
-        <v>22</v>
-      </c>
-      <c r="J13">
-        <v>312</v>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="13">
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/a1.xlsx
+++ b/a1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CurtisLui/Documents/Documents/SFU /4th Year/SUMMER 2020/CMPT 310/aima-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCB8934-AAA3-984A-8196-ED4EC7C67F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BFDBD7-F5A5-3F47-A53F-9857EB72015F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{423D17DF-81E2-8D47-A949-B41332F7DC77}"/>
+    <workbookView xWindow="500" yWindow="460" windowWidth="37900" windowHeight="21140" xr2:uid="{423D17DF-81E2-8D47-A949-B41332F7DC77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>(7, 4, 1, 0, 3, 2, 8, 5, 6)</t>
   </si>
@@ -84,18 +84,6 @@
     <t>(3, 1, 8, 0, 2, 6, 7, 5, 4)</t>
   </si>
   <si>
-    <t>misplaced heuristic is a large underestimation</t>
-  </si>
-  <si>
-    <t>set of actions are different</t>
-  </si>
-  <si>
-    <t>duck puzzle:</t>
-  </si>
-  <si>
-    <t>result will be different</t>
-  </si>
-  <si>
     <t>Question 2: Comparing Algorithms</t>
   </si>
   <si>
@@ -127,6 +115,39 @@
   </si>
   <si>
     <t>Comparing Duck-Puzzle to 8-Puzzle</t>
+  </si>
+  <si>
+    <t>(3, 1, 2, 5, 4, 6, 0, 8, 7)</t>
+  </si>
+  <si>
+    <t>(1, 2, 3, 8, 0, 6, 5, 7, 4)</t>
+  </si>
+  <si>
+    <t>(1, 2, 0, 3, 6, 8, 4, 7, 5)</t>
+  </si>
+  <si>
+    <t>(2, 3, 1, 4, 8, 7, 6, 5, 0)</t>
+  </si>
+  <si>
+    <t>(3, 1, 2, 6, 0, 5, 8, 7, 4)</t>
+  </si>
+  <si>
+    <t>(1, 2, 3, 7, 8, 6, 4, 5, 0)</t>
+  </si>
+  <si>
+    <t>(3, 0, 2, 1, 5, 6, 8, 4, 7)</t>
+  </si>
+  <si>
+    <t>(2, 3, 1, 8, 0, 7, 5, 4, 6)</t>
+  </si>
+  <si>
+    <t>(2, 3, 1, 8, 5, 6, 0, 4, 7)</t>
+  </si>
+  <si>
+    <t>(3, 1, 2, 7, 5, 8, 4, 6, 0)</t>
+  </si>
+  <si>
+    <t>(3, 1, 2, 6, 0, 4, 5, 7, 8)</t>
   </si>
 </sst>
 </file>
@@ -187,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -244,39 +265,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -300,6 +337,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72999274-A13A-4147-AA55-324BBD695605}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,54 +698,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="11"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="L2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -692,13 +757,13 @@
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L3" s="1"/>
@@ -706,34 +771,34 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="12">
         <v>3.7631988525390599E-3</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="11">
         <v>14</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="13">
         <v>83</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="11">
         <v>6.1702728271484299E-4</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="11">
         <v>14</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="11">
         <v>15</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="12">
         <v>4.4512748718261702E-4</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="11">
         <v>14</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="13">
         <v>15</v>
       </c>
       <c r="L4" s="1"/>
@@ -741,34 +806,34 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
         <v>0.45156216621398898</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>19</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <v>1286</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>4.4016838073730399E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="6">
         <v>19</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>342</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="9">
         <v>4.3816089630126898E-2</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>19</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="10">
         <v>342</v>
       </c>
       <c r="L5" s="1"/>
@@ -776,34 +841,34 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="9">
         <v>516.83531188964798</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>27</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <v>38363</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>2.3462421894073402</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>27</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>2972</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="9">
         <v>2.3777329921722399</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>27</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="10">
         <v>2972</v>
       </c>
       <c r="L6" s="1"/>
@@ -811,34 +876,34 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="9">
         <v>5.5968999862670898E-2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>17</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="10">
         <v>396</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>4.4620037078857396E-3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="6">
         <v>17</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>89</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="9">
         <v>4.2881965637206997E-3</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>17</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="10">
         <v>89</v>
       </c>
       <c r="L7" s="1"/>
@@ -846,34 +911,34 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="9">
         <v>22.224617004394499</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>24</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="10">
         <v>9326</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>6.2270164489745997E-2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>24</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>420</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="9">
         <v>5.9733867645263602E-2</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>24</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="10">
         <v>420</v>
       </c>
       <c r="L8" s="1"/>
@@ -881,34 +946,34 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="9">
         <v>43.950897932052598</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>25</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="10">
         <v>12887</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>0.15557885169982899</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>25</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>695</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="9">
         <v>0.15943694114685</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>25</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="10">
         <v>695</v>
       </c>
       <c r="L9" s="1"/>
@@ -916,34 +981,34 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="9">
         <v>458.778995037078</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>27</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="10">
         <v>34688</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>1.12128210067749</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>27</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>2013</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="9">
         <v>1.12520503997802</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>27</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="10">
         <v>2013</v>
       </c>
       <c r="L10" s="1"/>
@@ -951,34 +1016,34 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="9">
         <v>21.3444180488586</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>24</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="10">
         <v>9187</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>5.0786733627319301E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>24</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>366</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="9">
         <v>4.8313140869140597E-2</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>24</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="10">
         <v>366</v>
       </c>
       <c r="L11" s="1"/>
@@ -986,34 +1051,34 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="9">
         <v>9.0247869491577095</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>23</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="10">
         <v>5826</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>7.4630260467529297E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>23</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>467</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="9">
         <v>7.41009712219238E-2</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>23</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="10">
         <v>467</v>
       </c>
       <c r="L12" s="1"/>
@@ -1021,34 +1086,34 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="9">
         <v>4.5554559230804399</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>22</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="10">
         <v>4133</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>3.2054901123046799E-2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>22</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>282</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="9">
         <v>3.1358003616333001E-2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>22</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="10">
         <v>282</v>
       </c>
       <c r="L13" s="1"/>
@@ -1056,34 +1121,34 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="9">
         <v>4.4608860015869096</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>22</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="10">
         <v>4093</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>3.9394140243530197E-2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>22</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>312</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="9">
         <v>3.9665937423705999E-2</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>22</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="10">
         <v>312</v>
       </c>
       <c r="L14" s="1"/>
@@ -1091,46 +1156,46 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="10" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1142,283 +1207,834 @@
       <c r="G17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="17">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="12">
         <f>MIN(B4:B14)</f>
         <v>3.7631988525390599E-3</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="11">
         <f>MIN(C4:C14)</f>
         <v>14</v>
       </c>
-      <c r="D18" s="18">
-        <f t="shared" ref="C18:J18" si="0">MIN(D4:D14)</f>
+      <c r="D18" s="13">
+        <f t="shared" ref="D18:J18" si="0">MIN(D4:D14)</f>
         <v>83</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="11">
         <f t="shared" si="0"/>
         <v>6.1702728271484299E-4</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="12">
         <f t="shared" si="0"/>
         <v>4.4512748718261702E-4</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="14">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
         <f>MAX(B4:B14)</f>
         <v>516.83531188964798</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <f t="shared" ref="C19:J19" si="1">MAX(C4:C14)</f>
         <v>27</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="10">
         <f t="shared" si="1"/>
         <v>38363</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>2.3462421894073402</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>2972</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="9">
         <f t="shared" si="1"/>
         <v>2.3777329921722399</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="10">
         <f t="shared" si="1"/>
         <v>2972</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="14">
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
         <f>AVERAGE(B4:B14)</f>
         <v>98.335151195525995</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <f t="shared" ref="C20:J20" si="2">AVERAGE(C4:C14)</f>
         <v>22.181818181818183</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="10">
         <f t="shared" si="2"/>
         <v>10933.454545454546</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <f t="shared" si="2"/>
         <v>0.35739411007274202</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
         <v>22.181818181818183</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <f t="shared" si="2"/>
         <v>724.81818181818187</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="9">
         <f t="shared" si="2"/>
         <v>0.36037239161404616</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <f t="shared" si="2"/>
         <v>22.181818181818183</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="10">
         <f t="shared" si="2"/>
         <v>724.81818181818187</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="14">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9">
         <f>MEDIAN(B4:B14)</f>
         <v>9.0247869491577095</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <f t="shared" ref="C21:J21" si="3">MEDIAN(C4:C14)</f>
         <v>23</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="10">
         <f t="shared" si="3"/>
         <v>5826</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <f t="shared" si="3"/>
         <v>5.0786733627319301E-2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <f t="shared" si="3"/>
         <v>366</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="9">
         <f t="shared" si="3"/>
         <v>4.8313140869140597E-2</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="6">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="10">
         <f t="shared" si="3"/>
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="L24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" s="3" t="s">
+      <c r="B26" s="22">
+        <v>1.6665935516357401E-2</v>
+      </c>
+      <c r="C26" s="23">
+        <v>19</v>
+      </c>
+      <c r="D26" s="24">
+        <v>284</v>
+      </c>
+      <c r="E26">
+        <v>6.7546367645263602E-3</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>121</v>
+      </c>
+      <c r="H26" s="22">
+        <v>5.1600933074951102E-3</v>
+      </c>
+      <c r="I26" s="23">
+        <v>19</v>
+      </c>
+      <c r="J26" s="24">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="22">
+        <v>9.8769664764404297E-3</v>
+      </c>
+      <c r="C27" s="23">
+        <v>15</v>
+      </c>
+      <c r="D27" s="24">
+        <v>164</v>
+      </c>
+      <c r="E27">
+        <v>4.55594062805175E-3</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>65</v>
+      </c>
+      <c r="H27" s="25">
+        <v>2.3121833801269501E-3</v>
+      </c>
+      <c r="I27" s="23">
+        <v>15</v>
+      </c>
+      <c r="J27" s="24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="22">
+        <v>3.18050384521484E-4</v>
+      </c>
+      <c r="C28" s="23">
+        <v>9</v>
+      </c>
+      <c r="D28" s="24">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>2.3221969604492101E-4</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28" s="22">
+        <v>2.2912025451660099E-4</v>
+      </c>
+      <c r="I28" s="23">
+        <v>9</v>
+      </c>
+      <c r="J28" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>4</v>
+      <c r="B29" s="22">
+        <v>2.6054859161376901E-2</v>
+      </c>
+      <c r="C29" s="23">
+        <v>19</v>
+      </c>
+      <c r="D29" s="24">
+        <v>281</v>
+      </c>
+      <c r="E29">
+        <v>2.3977756500244102E-3</v>
+      </c>
+      <c r="F29">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>67</v>
+      </c>
+      <c r="H29" s="22">
+        <v>2.19488143920898E-3</v>
+      </c>
+      <c r="I29" s="23">
+        <v>19</v>
+      </c>
+      <c r="J29" s="24">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="B30" s="22">
+        <v>9.7701311111450195E-2</v>
+      </c>
+      <c r="C30" s="23">
+        <v>23</v>
+      </c>
+      <c r="D30" s="24">
+        <v>797</v>
+      </c>
+      <c r="E30">
+        <v>2.9439926147460899E-2</v>
+      </c>
+      <c r="F30">
+        <v>23</v>
+      </c>
+      <c r="G30">
+        <v>363</v>
+      </c>
+      <c r="H30" s="22">
+        <v>3.2855033874511698E-2</v>
+      </c>
+      <c r="I30" s="23">
+        <v>23</v>
+      </c>
+      <c r="J30" s="24">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="22">
+        <v>6.4600944519042899E-2</v>
+      </c>
+      <c r="C31" s="23">
+        <v>21</v>
+      </c>
+      <c r="D31" s="24">
+        <v>553</v>
+      </c>
+      <c r="E31">
+        <v>2.5180816650390601E-2</v>
+      </c>
+      <c r="F31">
+        <v>21</v>
+      </c>
+      <c r="G31">
+        <v>310</v>
+      </c>
+      <c r="H31" s="22">
+        <v>2.7255058288574201E-2</v>
+      </c>
+      <c r="I31" s="23">
+        <v>21</v>
+      </c>
+      <c r="J31" s="24">
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="22">
+        <v>8.5330009460449201E-3</v>
+      </c>
+      <c r="C32" s="23">
+        <v>17</v>
+      </c>
+      <c r="D32" s="24">
+        <v>154</v>
+      </c>
+      <c r="E32">
+        <v>2.9058456420898398E-3</v>
+      </c>
+      <c r="F32">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>70</v>
+      </c>
+      <c r="H32" s="22">
+        <v>2.5219917297363199E-3</v>
+      </c>
+      <c r="I32" s="23">
+        <v>17</v>
+      </c>
+      <c r="J32" s="24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="22">
+        <v>1.49381160736083E-2</v>
+      </c>
+      <c r="C33" s="23">
+        <v>17</v>
+      </c>
+      <c r="D33" s="24">
+        <v>202</v>
+      </c>
+      <c r="E33">
+        <v>1.81818008422851E-3</v>
+      </c>
+      <c r="F33">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>54</v>
+      </c>
+      <c r="H33" s="22">
+        <v>2.1460056304931602E-3</v>
+      </c>
+      <c r="I33" s="23">
+        <v>17</v>
+      </c>
+      <c r="J33" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="22">
+        <v>5.8259963989257804E-3</v>
+      </c>
+      <c r="C34" s="23">
+        <v>15</v>
+      </c>
+      <c r="D34" s="24">
+        <v>97</v>
+      </c>
+      <c r="E34">
+        <v>4.3678283691406198E-3</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>62</v>
+      </c>
+      <c r="H34" s="22">
+        <v>1.9640922546386701E-3</v>
+      </c>
+      <c r="I34" s="23">
+        <v>15</v>
+      </c>
+      <c r="J34" s="24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="22">
+        <v>0.141741037368774</v>
+      </c>
+      <c r="C35" s="23">
+        <v>25</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1011</v>
+      </c>
+      <c r="E35">
+        <v>5.2363634109497001E-2</v>
+      </c>
+      <c r="F35">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>521</v>
+      </c>
+      <c r="H35" s="22">
+        <v>5.5527925491333001E-2</v>
+      </c>
+      <c r="I35" s="23">
+        <v>25</v>
+      </c>
+      <c r="J35" s="24">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="22">
+        <v>3.5205841064453097E-2</v>
+      </c>
+      <c r="C36" s="23">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="D36" s="24">
+        <v>345</v>
+      </c>
+      <c r="E36">
+        <v>7.8949928283691406E-3</v>
+      </c>
+      <c r="F36">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>161</v>
+      </c>
+      <c r="H36" s="23">
+        <v>8.0909729003906198E-3</v>
+      </c>
+      <c r="I36" s="23">
+        <v>19</v>
+      </c>
+      <c r="J36" s="23">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="12">
+        <f>MIN(B26:B36)</f>
+        <v>3.18050384521484E-4</v>
+      </c>
+      <c r="C40" s="11">
+        <f>MIN(C26:C36)</f>
+        <v>9</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" ref="D40:J40" si="4">MIN(D26:D36)</f>
+        <v>13</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" si="4"/>
+        <v>2.3221969604492101E-4</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H40" s="12">
+        <f t="shared" si="4"/>
+        <v>2.2912025451660099E-4</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J40" s="13">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B41" s="9">
+        <f>MAX(B26:B36)</f>
+        <v>0.141741037368774</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" ref="C41:J41" si="5">MAX(C26:C36)</f>
+        <v>25</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" si="5"/>
+        <v>1011</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="5"/>
+        <v>5.2363634109497001E-2</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="5"/>
+        <v>521</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="5"/>
+        <v>5.5527925491333001E-2</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="5"/>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="9">
+        <f>AVERAGE(B26:B36)</f>
+        <v>3.8314732638272314E-2</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" ref="C42:J42" si="6">AVERAGE(C26:C36)</f>
+        <v>18.09090909090909</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="6"/>
+        <v>354.63636363636363</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2537436051802187E-2</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="6"/>
+        <v>18.09090909090909</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="6"/>
+        <v>163.90909090909091</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="6"/>
+        <v>1.2750668959184119E-2</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="6"/>
+        <v>18.09090909090909</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="6"/>
+        <v>163.90909090909091</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="9">
+        <f>MEDIAN(B26:B36)</f>
+        <v>1.6665935516357401E-2</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" ref="C43:J43" si="7">MEDIAN(C26:C36)</f>
+        <v>19</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="7"/>
+        <v>4.55594062805175E-3</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="7"/>
+        <v>2.5219917297363199E-3</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:J24"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/a1.xlsx
+++ b/a1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CurtisLui/Documents/Documents/SFU /4th Year/SUMMER 2020/CMPT 310/aima-python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3344D0-61A9-A34F-900C-D5C72B8F111F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F884C1-A680-3A4B-8984-B31CC190768F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="500" yWindow="460" windowWidth="37900" windowHeight="21140" xr2:uid="{423D17DF-81E2-8D47-A949-B41332F7DC77}"/>
   </bookViews>
@@ -150,10 +150,10 @@
     <t>(3, 1, 2, 6, 0, 4, 5, 7, 8)</t>
   </si>
   <si>
-    <t>From the data, the Manhattan Distance heuristic performed better than the Misplaced Tile. We can see this from the A*-search using the max of the misplaced tile heuristic and the Manhattan distance heuristic. All of the results from the max function used the Manhattan distance. This infers that the misplaced tile heuristic was a major underestimate and the manhattan distance does a good job at estimating the costs, but never an overestimate. Each algorithm took the same length and same paths, but we can see that the misplaced tile heuristic had a higher average of nodes removed from the frontier compared to the manhattan distance. This indicates that the heuristic was not as accurate and caused A*-search to go down the wrong edges. Also, the running time of the misplaced tile heuristic is significantly greater than the manhattan distance.</t>
-  </si>
-  <si>
     <t>The average solve times of all the algorithms are significantly less than the duck puzzle. From this data, we can infer that the Duck puzzle is much easier than the 8 Puzzle. When looking at the average solve times for both the misplaced and manhattan heuristic, they do not differ by a lot as compared to the 8-puzzle solve times. Also, the average number of nodes that are removed from the frontier is significantly less than the tests in the 8 puzzle. When looking at the average number of nodes removed from the frontier, we can still see that the manhattan distance is a better heuristic than the misplaced tile. However, the misplaced tile heuristic does not perform significantly worse for the duck-puzzle.</t>
+  </si>
+  <si>
+    <t>From the data, the Manhattan Distance heuristic performed better than the Misplaced Tile. We can see this from the A*-search using the max of the misplaced tile heuristic and the Manhattan distance heuristic. All of the results from the max function used the Manhattan distance. This infers that the misplaced tile heuristic was a major underestimate and the manhattan distance does a good job at estimating the costs, but never an overestimate. Each algorithm took the same length and same paths, but we can see that the misplaced tile heuristic had a higher average of nodes removed from the frontier compared to the manhattan distance. This indicates that the heuristic was not as accurate and caused A*-search to go down the wrong edges. Also, the running time of the misplaced tile heuristic is significantly greater than the manhattan distance. Both misplaced and manhattan distance are admissible, but the manhattan distance is better because it tends to be closer to the true number of moves</t>
   </si>
 </sst>
 </file>
@@ -356,6 +356,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,18 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72999274-A13A-4147-AA55-324BBD695605}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,42 +710,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -778,13 +778,13 @@
       <c r="J3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="L3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -817,11 +817,11 @@
       <c r="J4" s="13">
         <v>15</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -854,11 +854,11 @@
       <c r="J5" s="10">
         <v>342</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -891,11 +891,11 @@
       <c r="J6" s="10">
         <v>2972</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -928,11 +928,11 @@
       <c r="J7" s="10">
         <v>89</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -965,11 +965,11 @@
       <c r="J8" s="10">
         <v>420</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -1002,11 +1002,11 @@
       <c r="J9" s="10">
         <v>695</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -1039,11 +1039,11 @@
       <c r="J10" s="10">
         <v>2013</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -1076,11 +1076,11 @@
       <c r="J11" s="10">
         <v>366</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -1113,11 +1113,11 @@
       <c r="J12" s="10">
         <v>467</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -1150,11 +1150,11 @@
       <c r="J13" s="10">
         <v>282</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -1187,11 +1187,11 @@
       <c r="J14" s="10">
         <v>312</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1204,34 +1204,34 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="21" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1264,11 +1264,11 @@
       <c r="J17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
@@ -1310,11 +1310,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -1356,11 +1356,11 @@
         <f t="shared" si="1"/>
         <v>2972</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -1402,11 +1402,11 @@
         <f t="shared" si="2"/>
         <v>724.81818181818187</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -1451,41 +1451,41 @@
     </row>
     <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="21" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="L24" s="24" t="s">
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="L24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
@@ -1518,13 +1518,13 @@
       <c r="J25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
+      <c r="L25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1557,11 +1557,11 @@
       <c r="J26" s="19">
         <v>121</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1594,11 +1594,11 @@
       <c r="J27" s="19">
         <v>65</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1631,11 +1631,11 @@
       <c r="J28" s="19">
         <v>9</v>
       </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1668,11 +1668,11 @@
       <c r="J29" s="19">
         <v>67</v>
       </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1705,11 +1705,11 @@
       <c r="J30" s="19">
         <v>363</v>
       </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1742,11 +1742,11 @@
       <c r="J31" s="19">
         <v>310</v>
       </c>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1779,11 +1779,11 @@
       <c r="J32" s="19">
         <v>70</v>
       </c>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1816,11 +1816,11 @@
       <c r="J33" s="19">
         <v>54</v>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1853,11 +1853,11 @@
       <c r="J34" s="19">
         <v>62</v>
       </c>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1890,11 +1890,11 @@
       <c r="J35" s="19">
         <v>521</v>
       </c>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1927,41 +1927,41 @@
       <c r="J36" s="18">
         <v>161</v>
       </c>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
     </row>
     <row r="38" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="21" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
     </row>
     <row r="39" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1994,11 +1994,11 @@
       <c r="J39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
@@ -2040,11 +2040,11 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
@@ -2086,11 +2086,11 @@
         <f t="shared" si="5"/>
         <v>521</v>
       </c>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -2132,11 +2132,11 @@
         <f t="shared" si="6"/>
         <v>163.90909090909091</v>
       </c>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -2178,14 +2178,19 @@
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="L3:P20"/>
     <mergeCell ref="L25:P43"/>
     <mergeCell ref="L24:N24"/>
@@ -2193,11 +2198,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:J24"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:J16"/>
